--- a/samples/SA-عينة-شركات-النقل-preview.xlsx
+++ b/samples/SA-عينة-شركات-النقل-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -31,628 +31,622 @@
     <t>Status</t>
   </si>
   <si>
-    <t>مؤسسة بندر احمد مثيب الغانمي للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة تركي محمد علي البليهي للنقليات</t>
-  </si>
-  <si>
-    <t>شركة حسين علي بن خميس الهمامي للنقليات شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة أفراح علي أحمد الشافعي للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>شركة الزامل للخدمات البحريه</t>
-  </si>
-  <si>
-    <t>مؤسسة حسين عايض سعد ال فهد للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة أصول الدعم للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة الرامي الأولى للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>شركة درب المستقبل للنقليات</t>
-  </si>
-  <si>
-    <t>فرع شركة عبيد محمد السعدي للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة بندر سعد القحطاني للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة نقليات القمة للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>شركة شري للتجارة</t>
-  </si>
-  <si>
-    <t>شركة أتقان الصناعية شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة الخطوط الطويله للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد عواد خلف العنزي للنقليات</t>
-  </si>
-  <si>
-    <t>شركة مرجان ودي للنقل البري شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مصنع وادي الحنيه للمياه الصحية</t>
-  </si>
-  <si>
-    <t>مؤسسة خشمان احمد خلف الخريصي الشمري للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة صفوة غيم للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة حماد علي سليمان الروسه القريني للنقليات</t>
-  </si>
-  <si>
-    <t>شركة السفر الذكي للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة سالم مسلم سالم الجهني للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة سنابل الانوار للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة ريان الرائدة للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة مسار احد للشحن</t>
-  </si>
-  <si>
-    <t>مؤسسة توصيلي الخاص للنقل</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد سليمان بن محمد صديق سندي للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة نبراس جديد للنقليات</t>
-  </si>
-  <si>
-    <t>شركة ناهز للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>شركة اسطول السعودية المحدودة</t>
-  </si>
-  <si>
-    <t>مؤسسة ماجد سويلم مسلم المحمادي للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>مؤسسة تياق للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>شركة البري للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة ابعاد هجر للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>شركة ريم الفلا للخدمات اللوجستية شخص واحد</t>
-  </si>
-  <si>
-    <t>شركة حلول متقدمة لخدمات النقل شركةمساهمةمبسطه</t>
-  </si>
-  <si>
-    <t>مؤسسة بندر محسن سالم الخلاقي للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>شركة الحميدي لتأجير السيارات شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة مشوار واحد للنقل</t>
-  </si>
-  <si>
-    <t>مؤسسة مرام الخير للنقل المدرسي</t>
-  </si>
-  <si>
-    <t>مؤسسة عبدالعزيز علي التميمي لنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة مسارات الناقل للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة مكارم الأجاويد للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة هادي مهدي بن علي المحمضي للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>شركة رمات للتسويق والتوزيع المحدودة شركة الشخص الواحد شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة الحل الوحيد للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة سدارت للتجارة</t>
-  </si>
-  <si>
-    <t>مؤسسة عوده مصلح عواد المساوى للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة مبيريك مسعود الخميسي للنقل</t>
-  </si>
-  <si>
-    <t>مؤسسة جمان للنقليات</t>
-  </si>
-  <si>
-    <t>الشركة ابتدأ للخدمات اللوجستية شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة نائف غميض بن عبيد العوفي للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة احمد عقل محمد العميري للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة اعمال للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة احمد مشعان الشمري لتأجير السيارات</t>
-  </si>
-  <si>
-    <t>مؤسسة ودق للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة آفاق المتحدة للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة إميم للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة عبدالعزيز الاسمر بن شليويح العنزي للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة وبل السحاب لتأجير السيارات</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد بن حسن بن سعيد الدماعين للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة اديب سليم الله سالم الحجيلي للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة المسار الامن لوسطاء الشحن</t>
-  </si>
-  <si>
-    <t>مؤسسة دروب البلاد للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة درر التنفيذية للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة عذب الصحراء المحدودة</t>
-  </si>
-  <si>
-    <t>شركة مجموعة كابلات الرياض مساهمة عامة</t>
-  </si>
-  <si>
-    <t>شركة الجونه المتميزه للحلويات والحفلات المحدوده</t>
-  </si>
-  <si>
-    <t>مؤسسة ضاوي للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة حنين للنقليات</t>
-  </si>
-  <si>
-    <t>افلاء الريس للنقل</t>
-  </si>
-  <si>
-    <t>مؤسسة مجموعة رحال للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة آلاء اليمامة للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة عبدالله هادي البقمي للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة الوسام الاوحد للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة عابر القصيم لنقل البضائع لصاحبته عائشة غانم المطيري</t>
-  </si>
-  <si>
-    <t>مؤسسة الإرتقاء للنقليات</t>
-  </si>
-  <si>
-    <t>فايز للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة دعم البركة للنقليات</t>
-  </si>
-  <si>
-    <t>شـركة سفاري مساهمه مقفله</t>
-  </si>
-  <si>
-    <t>شركة جوهرة الربع الغالي للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة الامداد الفوري للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة الحاتمية للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة مراسل الطريق للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة مطلق سليمان فهيد النافل للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة الشعلان للنقليات</t>
-  </si>
-  <si>
-    <t>شركة انجاز الصروح</t>
-  </si>
-  <si>
-    <t>شركة سمات العربيه للخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>مؤسسة مسارات محسن للنقل البري</t>
-  </si>
-  <si>
-    <t>مؤسسة طريق الربيع للنقليات</t>
-  </si>
-  <si>
-    <t>شركة رود العربية للنقل البري</t>
-  </si>
-  <si>
-    <t>شركة إنماء البلاد للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة نايف عيد عواد العنزي للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة فهد بن طليميس بن راشد الدوسري للنقليات</t>
-  </si>
-  <si>
-    <t>شركة نوامي الزراعية شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة مساري الجزيرة لتأجير السيارات</t>
-  </si>
-  <si>
-    <t>معرض درع التنمية للسيارات</t>
-  </si>
-  <si>
-    <t>مؤسسة سنيار للنقليات</t>
-  </si>
-  <si>
-    <t>مؤسسة صدف المشارع للنقليات</t>
-  </si>
-  <si>
-    <t>نقل البضائع على الطرق البرية</t>
-  </si>
-  <si>
-    <t>النقل الخفيف للبضائع على الطرق البرية</t>
-  </si>
-  <si>
-    <t>وسيط الشحن (الخدمات اللوجستية)</t>
-  </si>
-  <si>
-    <t>نقل السيارات وسحب المركبات</t>
-  </si>
-  <si>
-    <t>تأجير الحافلات</t>
+    <t>مؤسسة بندر احم...</t>
+  </si>
+  <si>
+    <t>مؤسسة تركي محم...</t>
+  </si>
+  <si>
+    <t>شركة حسين علي ...</t>
+  </si>
+  <si>
+    <t>مؤسسة أفراح عل...</t>
+  </si>
+  <si>
+    <t>شركة الزامل لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة حسين عاي...</t>
+  </si>
+  <si>
+    <t>مؤسسة أصول الد...</t>
+  </si>
+  <si>
+    <t>مؤسسة الرامي ا...</t>
+  </si>
+  <si>
+    <t>شركة درب المست...</t>
+  </si>
+  <si>
+    <t>فرع شركة عبيد ...</t>
+  </si>
+  <si>
+    <t>مؤسسة بندر سعد...</t>
+  </si>
+  <si>
+    <t>مؤسسة نقليات ا...</t>
+  </si>
+  <si>
+    <t>شركة شري للتجا...</t>
+  </si>
+  <si>
+    <t>شركة أتقان الص...</t>
+  </si>
+  <si>
+    <t>مؤسسة الخطوط ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد عوا...</t>
+  </si>
+  <si>
+    <t>شركة مرجان ودي...</t>
+  </si>
+  <si>
+    <t>مصنع وادي الحن...</t>
+  </si>
+  <si>
+    <t>مؤسسة خشمان اح...</t>
+  </si>
+  <si>
+    <t>مؤسسة صفوة غيم...</t>
+  </si>
+  <si>
+    <t>مؤسسة حماد علي...</t>
+  </si>
+  <si>
+    <t>شركة السفر الذ...</t>
+  </si>
+  <si>
+    <t>مؤسسة سالم مسل...</t>
+  </si>
+  <si>
+    <t>مؤسسة سنابل ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة ريان الر...</t>
+  </si>
+  <si>
+    <t>مؤسسة مسار احد...</t>
+  </si>
+  <si>
+    <t>مؤسسة توصيلي ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد سلي...</t>
+  </si>
+  <si>
+    <t>مؤسسة نبراس جد...</t>
+  </si>
+  <si>
+    <t>شركة ناهز للخد...</t>
+  </si>
+  <si>
+    <t>شركة اسطول الس...</t>
+  </si>
+  <si>
+    <t>مؤسسة ماجد سوي...</t>
+  </si>
+  <si>
+    <t>مؤسسة تياق للخ...</t>
+  </si>
+  <si>
+    <t>شركة البري للخ...</t>
+  </si>
+  <si>
+    <t>مؤسسة ابعاد هج...</t>
+  </si>
+  <si>
+    <t>شركة ريم الفلا...</t>
+  </si>
+  <si>
+    <t>شركة حلول متقد...</t>
+  </si>
+  <si>
+    <t>مؤسسة بندر محس...</t>
+  </si>
+  <si>
+    <t>شركة الحميدي ل...</t>
+  </si>
+  <si>
+    <t>مؤسسة مشوار وا...</t>
+  </si>
+  <si>
+    <t>مؤسسة مرام الخ...</t>
+  </si>
+  <si>
+    <t>مؤسسة عبدالعزي...</t>
+  </si>
+  <si>
+    <t>مؤسسة مسارات ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة مكارم ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة هادي مهد...</t>
+  </si>
+  <si>
+    <t>شركة رمات للتس...</t>
+  </si>
+  <si>
+    <t>مؤسسة الحل الو...</t>
+  </si>
+  <si>
+    <t>مؤسسة سدارت لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة عوده مصل...</t>
+  </si>
+  <si>
+    <t>مؤسسة مبيريك م...</t>
+  </si>
+  <si>
+    <t>مؤسسة جمان للن...</t>
+  </si>
+  <si>
+    <t>الشركة ابتدأ ل...</t>
+  </si>
+  <si>
+    <t>مؤسسة نائف غمي...</t>
+  </si>
+  <si>
+    <t>مؤسسة احمد عقل...</t>
+  </si>
+  <si>
+    <t>مؤسسة اعمال لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة احمد مشع...</t>
+  </si>
+  <si>
+    <t>مؤسسة ودق للنق...</t>
+  </si>
+  <si>
+    <t>مؤسسة آفاق الم...</t>
+  </si>
+  <si>
+    <t>مؤسسة إميم للخ...</t>
+  </si>
+  <si>
+    <t>مؤسسة وبل السح...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد بن ...</t>
+  </si>
+  <si>
+    <t>مؤسسة اديب سلي...</t>
+  </si>
+  <si>
+    <t>مؤسسة المسار ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة دروب الب...</t>
+  </si>
+  <si>
+    <t>مؤسسة درر التن...</t>
+  </si>
+  <si>
+    <t>شركة عذب الصحر...</t>
+  </si>
+  <si>
+    <t>شركة مجموعة كا...</t>
+  </si>
+  <si>
+    <t>شركة الجونه ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة ضاوي للن...</t>
+  </si>
+  <si>
+    <t>مؤسسة حنين للن...</t>
+  </si>
+  <si>
+    <t>افلاء الريس لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة مجموعة ر...</t>
+  </si>
+  <si>
+    <t>مؤسسة آلاء الي...</t>
+  </si>
+  <si>
+    <t>مؤسسة عبدالله ...</t>
+  </si>
+  <si>
+    <t>مؤسسة الوسام ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة عابر الق...</t>
+  </si>
+  <si>
+    <t>مؤسسة الإرتقاء...</t>
+  </si>
+  <si>
+    <t>فايز للنقل الب...</t>
+  </si>
+  <si>
+    <t>مؤسسة دعم البر...</t>
+  </si>
+  <si>
+    <t>شـركة سفاري مس...</t>
+  </si>
+  <si>
+    <t>شركة جوهرة الر...</t>
+  </si>
+  <si>
+    <t>مؤسسة الامداد ...</t>
+  </si>
+  <si>
+    <t>مؤسسة الحاتمية...</t>
+  </si>
+  <si>
+    <t>مؤسسة مراسل ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة مطلق سلي...</t>
+  </si>
+  <si>
+    <t>مؤسسة الشعلان ...</t>
+  </si>
+  <si>
+    <t>شركة انجاز الص...</t>
+  </si>
+  <si>
+    <t>شركة سمات العر...</t>
+  </si>
+  <si>
+    <t>مؤسسة مسارات م...</t>
+  </si>
+  <si>
+    <t>مؤسسة طريق الر...</t>
+  </si>
+  <si>
+    <t>شركة رود العرب...</t>
+  </si>
+  <si>
+    <t>شركة إنماء الب...</t>
+  </si>
+  <si>
+    <t>مؤسسة نايف عيد...</t>
+  </si>
+  <si>
+    <t>مؤسسة فهد بن ط...</t>
+  </si>
+  <si>
+    <t>شركة نوامي الز...</t>
+  </si>
+  <si>
+    <t>مؤسسة مساري ال...</t>
+  </si>
+  <si>
+    <t>معرض درع التنم...</t>
+  </si>
+  <si>
+    <t>مؤسسة سنيار لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة صدف المش...</t>
+  </si>
+  <si>
+    <t>نقل البضائع عل...</t>
+  </si>
+  <si>
+    <t>النقل الخفيف ل...</t>
+  </si>
+  <si>
+    <t>وسيط الشحن (ال...</t>
+  </si>
+  <si>
+    <t>نقل السيارات و...</t>
+  </si>
+  <si>
+    <t>تأجير الحافلات...</t>
   </si>
   <si>
     <t>النقل المتخصص</t>
   </si>
   <si>
-    <t>نشاط توجيه مركبات الأجرة</t>
-  </si>
-  <si>
-    <t>الخدمات اللوجستية</t>
-  </si>
-  <si>
-    <t>النقل التعليمي</t>
-  </si>
-  <si>
-    <t>الدراجات الآلية لنقل البضائع - البيئة التنظيمية التجريبية</t>
-  </si>
-  <si>
-    <t>ترخيص تأجير السيارات - فئة (ج)</t>
-  </si>
-  <si>
-    <t>ترخيص تأجير السيارات - فئة (د)</t>
+    <t>نشاط توجيه مرك...</t>
+  </si>
+  <si>
+    <t>الخدمات اللوجس...</t>
+  </si>
+  <si>
+    <t>النقل التعليمي...</t>
+  </si>
+  <si>
+    <t>الدراجات الآلي...</t>
+  </si>
+  <si>
+    <t>ترخيص تأجير ال...</t>
   </si>
   <si>
     <t>الأجرة العامة</t>
   </si>
   <si>
-    <t>bandar.elghanmi@gmail.com</t>
-  </si>
-  <si>
-    <t>w8ma9919@gmail.com</t>
-  </si>
-  <si>
-    <t>alzafryz@hotmail.com</t>
-  </si>
-  <si>
-    <t>fa.sil2009@hotmail.com</t>
-  </si>
-  <si>
-    <t>ahmed.mokhlef@zamiloffshore.com</t>
-  </si>
-  <si>
-    <t>isk@binkamash.com</t>
-  </si>
-  <si>
-    <t>osual990@gmail.com</t>
-  </si>
-  <si>
-    <t>aass7224194@gmail.com</t>
-  </si>
-  <si>
-    <t>darb.almustakbal@gmail.com</t>
-  </si>
-  <si>
-    <t>alsaadi_cars@yahoo.com</t>
-  </si>
-  <si>
-    <t>bander47847@hotmail.com</t>
-  </si>
-  <si>
-    <t>hamed_229@hotmail.com</t>
-  </si>
-  <si>
-    <t>moath.alomer10@hotmail.com</t>
-  </si>
-  <si>
-    <t>halem910f@gmail.com</t>
-  </si>
-  <si>
-    <t>sayedwali95@gmail.com</t>
-  </si>
-  <si>
-    <t>mohammedalenzi78@gmail.com</t>
-  </si>
-  <si>
-    <t>khaled60608080@gmail.com</t>
-  </si>
-  <si>
-    <t>mansour.alsubaie181@gmail.com</t>
-  </si>
-  <si>
-    <t>kak1396@yahoo.com</t>
-  </si>
-  <si>
-    <t>aassgg9669@gmail.com</t>
-  </si>
-  <si>
-    <t>ha1012924732@gmail.com</t>
-  </si>
-  <si>
-    <t>brnawi111@gmail.com</t>
-  </si>
-  <si>
-    <t>asas38330@gmail.com</t>
-  </si>
-  <si>
-    <t>azwz6.320@gmail.com</t>
-  </si>
-  <si>
-    <t>gm@naqelltd.com</t>
-  </si>
-  <si>
-    <t>fmmh2011@gmail.com</t>
-  </si>
-  <si>
-    <t>imim0007@hotmail.com</t>
-  </si>
-  <si>
-    <t>m-s-s200@outlook.com</t>
-  </si>
-  <si>
-    <t>newnabras@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@nahez.com</t>
-  </si>
-  <si>
-    <t>islandfleet.sa@gmail.com</t>
-  </si>
-  <si>
-    <t>zeed752@gmail.com</t>
-  </si>
-  <si>
-    <t>sssa959@hotmail.com</t>
-  </si>
-  <si>
-    <t>a.alghanem92@gmail.com</t>
-  </si>
-  <si>
-    <t>hssmmbb@gmail.com</t>
-  </si>
-  <si>
-    <t>abbddda8808@hotmail.com</t>
+    <t>bandar.elghanm...</t>
+  </si>
+  <si>
+    <t>w8ma9919@gmail...</t>
+  </si>
+  <si>
+    <t>alzafryz@hotma...</t>
+  </si>
+  <si>
+    <t>fa.sil2009@hot...</t>
+  </si>
+  <si>
+    <t>ahmed.mokhlef@...</t>
+  </si>
+  <si>
+    <t>isk@binkamash....</t>
+  </si>
+  <si>
+    <t>osual990@gmail...</t>
+  </si>
+  <si>
+    <t>aass7224194@gm...</t>
+  </si>
+  <si>
+    <t>darb.almustakb...</t>
+  </si>
+  <si>
+    <t>alsaadi_cars@y...</t>
+  </si>
+  <si>
+    <t>bander47847@ho...</t>
+  </si>
+  <si>
+    <t>hamed_229@hotm...</t>
+  </si>
+  <si>
+    <t>moath.alomer10...</t>
+  </si>
+  <si>
+    <t>halem910f@gmai...</t>
+  </si>
+  <si>
+    <t>sayedwali95@gm...</t>
+  </si>
+  <si>
+    <t>mohammedalenzi...</t>
+  </si>
+  <si>
+    <t>khaled60608080...</t>
+  </si>
+  <si>
+    <t>mansour.alsuba...</t>
+  </si>
+  <si>
+    <t>kak1396@yahoo....</t>
+  </si>
+  <si>
+    <t>aassgg9669@gma...</t>
+  </si>
+  <si>
+    <t>ha1012924732@g...</t>
+  </si>
+  <si>
+    <t>brnawi111@gmai...</t>
+  </si>
+  <si>
+    <t>asas38330@gmai...</t>
+  </si>
+  <si>
+    <t>azwz6.320@gmai...</t>
+  </si>
+  <si>
+    <t>gm@naqelltd.co...</t>
+  </si>
+  <si>
+    <t>fmmh2011@gmail...</t>
+  </si>
+  <si>
+    <t>imim0007@hotma...</t>
+  </si>
+  <si>
+    <t>m-s-s200@outlo...</t>
+  </si>
+  <si>
+    <t>newnabras@hotm...</t>
+  </si>
+  <si>
+    <t>info@nahez.com...</t>
+  </si>
+  <si>
+    <t>islandfleet.sa...</t>
+  </si>
+  <si>
+    <t>zeed752@gmail....</t>
+  </si>
+  <si>
+    <t>sssa959@hotmai...</t>
+  </si>
+  <si>
+    <t>a.alghanem92@g...</t>
+  </si>
+  <si>
+    <t>hssmmbb@gmail....</t>
+  </si>
+  <si>
+    <t>abbddda8808@ho...</t>
   </si>
   <si>
     <t>pr@zeem.sa</t>
   </si>
   <si>
-    <t>al.hamidi.cars@gmail.com</t>
-  </si>
-  <si>
-    <t>dfafgf@gmail.com</t>
-  </si>
-  <si>
-    <t>abofadel412@gmail.com</t>
-  </si>
-  <si>
-    <t>alsuaistrans@gmail.com</t>
-  </si>
-  <si>
-    <t>hfr-2099@hotmail.com</t>
-  </si>
-  <si>
-    <t>sas-614@hotmail.com</t>
-  </si>
-  <si>
-    <t>hadi068537@gmail.com</t>
-  </si>
-  <si>
-    <t>dsffs12@gjsgtep.com</t>
-  </si>
-  <si>
-    <t>ainalsharfiah@gmail.com</t>
-  </si>
-  <si>
-    <t>z91756496@gmail.com</t>
-  </si>
-  <si>
-    <t>mohd.almesawi@gmail.com</t>
-  </si>
-  <si>
-    <t>mebarek99@gmail.com</t>
-  </si>
-  <si>
-    <t>gsor0544@gmail.com</t>
-  </si>
-  <si>
-    <t>com.7.7.7@hotmail.com</t>
-  </si>
-  <si>
-    <t>bus303@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmad12131400@icloud.com</t>
-  </si>
-  <si>
-    <t>aamalco2030@gmail.com</t>
-  </si>
-  <si>
-    <t>shhhihab7788@gmail.com</t>
-  </si>
-  <si>
-    <t>nasser85fb@gmail.com</t>
-  </si>
-  <si>
-    <t>eng_moussa88@gmail.com</t>
-  </si>
-  <si>
-    <t>mm4224@hotmail.com</t>
-  </si>
-  <si>
-    <t>a1089275414@gmail.com</t>
-  </si>
-  <si>
-    <t>alhrbe20172017@gmail.com</t>
-  </si>
-  <si>
-    <t>adeep.s.s.o@gmail.com</t>
-  </si>
-  <si>
-    <t>safetrack2023@gmail.com</t>
-  </si>
-  <si>
-    <t>fayez123ff11@gmail.com</t>
-  </si>
-  <si>
-    <t>j0558649990@gmail.com</t>
-  </si>
-  <si>
-    <t>info@almoagelgroup.com</t>
-  </si>
-  <si>
-    <t>fahad.almutairi@riyadh-cables.com</t>
-  </si>
-  <si>
-    <t>hr@aljonah.com</t>
-  </si>
-  <si>
-    <t>m.samir1511@yahoo.com</t>
-  </si>
-  <si>
-    <t>honainfortrading@hotmail.com</t>
-  </si>
-  <si>
-    <t>bandar11101@hotmail.com</t>
-  </si>
-  <si>
-    <t>ksa_5589@hotmail.com</t>
-  </si>
-  <si>
-    <t>a1008497842@hotmail.com</t>
-  </si>
-  <si>
-    <t>aboooo9110@gmail.com</t>
-  </si>
-  <si>
-    <t>abdullahalotaibi74@gmail.com</t>
-  </si>
-  <si>
-    <t>aa.1995@hotmail.com</t>
-  </si>
-  <si>
-    <t>admin.93@fayezco.com</t>
-  </si>
-  <si>
-    <t>daamalbarakah@gmail.com</t>
-  </si>
-  <si>
-    <t>mhsaleh@safari.com.sa</t>
-  </si>
-  <si>
-    <t>salah.elkhiat222@gmail.com</t>
-  </si>
-  <si>
-    <t>info@drbalamdad.com</t>
-  </si>
-  <si>
-    <t>ssswsss88@gmail.com</t>
-  </si>
-  <si>
-    <t>k99999km@gmail.com</t>
-  </si>
-  <si>
-    <t>alibnalshiba2030@gmail.com</t>
-  </si>
-  <si>
-    <t>alkorbi502@gmail.com</t>
-  </si>
-  <si>
-    <t>l-e-184400@hotmail.com</t>
-  </si>
-  <si>
-    <t>vio9888@gmail.com</t>
-  </si>
-  <si>
-    <t>thamermm79@gmail.com</t>
-  </si>
-  <si>
-    <t>ibnhtilan.manger@gmail.com</t>
-  </si>
-  <si>
-    <t>naif@alanzi.sa</t>
-  </si>
-  <si>
-    <t>hasan_f_2014@hotmail.com</t>
-  </si>
-  <si>
-    <t>hamad.alhatim@nawami.sa</t>
-  </si>
-  <si>
-    <t>ahmadhamoodi2254@gmail.com</t>
-  </si>
-  <si>
-    <t>shf-q@hotmail.com</t>
-  </si>
-  <si>
-    <t>sniyar@hotmail.com</t>
-  </si>
-  <si>
-    <t>khalidmaroof92@gmail.com</t>
+    <t>al.hamidi.cars...</t>
+  </si>
+  <si>
+    <t>dfafgf@gmail.c...</t>
+  </si>
+  <si>
+    <t>abofadel412@gm...</t>
+  </si>
+  <si>
+    <t>alsuaistrans@g...</t>
+  </si>
+  <si>
+    <t>hfr-2099@hotma...</t>
+  </si>
+  <si>
+    <t>sas-614@hotmai...</t>
+  </si>
+  <si>
+    <t>hadi068537@gma...</t>
+  </si>
+  <si>
+    <t>dsffs12@gjsgte...</t>
+  </si>
+  <si>
+    <t>ainalsharfiah@...</t>
+  </si>
+  <si>
+    <t>z91756496@gmai...</t>
+  </si>
+  <si>
+    <t>mohd.almesawi@...</t>
+  </si>
+  <si>
+    <t>mebarek99@gmai...</t>
+  </si>
+  <si>
+    <t>gsor0544@gmail...</t>
+  </si>
+  <si>
+    <t>com.7.7.7@hotm...</t>
+  </si>
+  <si>
+    <t>bus303@gmail.c...</t>
+  </si>
+  <si>
+    <t>ahmad12131400@...</t>
+  </si>
+  <si>
+    <t>aamalco2030@gm...</t>
+  </si>
+  <si>
+    <t>shhhihab7788@g...</t>
+  </si>
+  <si>
+    <t>nasser85fb@gma...</t>
+  </si>
+  <si>
+    <t>eng_moussa88@g...</t>
+  </si>
+  <si>
+    <t>mm4224@hotmail...</t>
+  </si>
+  <si>
+    <t>a1089275414@gm...</t>
+  </si>
+  <si>
+    <t>alhrbe20172017...</t>
+  </si>
+  <si>
+    <t>adeep.s.s.o@gm...</t>
+  </si>
+  <si>
+    <t>safetrack2023@...</t>
+  </si>
+  <si>
+    <t>fayez123ff11@g...</t>
+  </si>
+  <si>
+    <t>j0558649990@gm...</t>
+  </si>
+  <si>
+    <t>info@almoagelg...</t>
+  </si>
+  <si>
+    <t>fahad.almutair...</t>
+  </si>
+  <si>
+    <t>hr@aljonah.com...</t>
+  </si>
+  <si>
+    <t>m.samir1511@ya...</t>
+  </si>
+  <si>
+    <t>honainfortradi...</t>
+  </si>
+  <si>
+    <t>bandar11101@ho...</t>
+  </si>
+  <si>
+    <t>ksa_5589@hotma...</t>
+  </si>
+  <si>
+    <t>a1008497842@ho...</t>
+  </si>
+  <si>
+    <t>aboooo9110@gma...</t>
+  </si>
+  <si>
+    <t>abdullahalotai...</t>
+  </si>
+  <si>
+    <t>aa.1995@hotmai...</t>
+  </si>
+  <si>
+    <t>admin.93@fayez...</t>
+  </si>
+  <si>
+    <t>daamalbarakah@...</t>
+  </si>
+  <si>
+    <t>mhsaleh@safari...</t>
+  </si>
+  <si>
+    <t>salah.elkhiat2...</t>
+  </si>
+  <si>
+    <t>info@drbalamda...</t>
+  </si>
+  <si>
+    <t>ssswsss88@gmai...</t>
+  </si>
+  <si>
+    <t>k99999km@gmail...</t>
+  </si>
+  <si>
+    <t>alibnalshiba20...</t>
+  </si>
+  <si>
+    <t>alkorbi502@gma...</t>
+  </si>
+  <si>
+    <t>l-e-184400@hot...</t>
+  </si>
+  <si>
+    <t>vio9888@gmail....</t>
+  </si>
+  <si>
+    <t>thamermm79@gma...</t>
+  </si>
+  <si>
+    <t>ibnhtilan.mang...</t>
+  </si>
+  <si>
+    <t>naif@alanzi.sa...</t>
+  </si>
+  <si>
+    <t>hasan_f_2014@h...</t>
+  </si>
+  <si>
+    <t>hamad.alhatim@...</t>
+  </si>
+  <si>
+    <t>ahmadhamoodi22...</t>
+  </si>
+  <si>
+    <t>shf-q@hotmail....</t>
+  </si>
+  <si>
+    <t>sniyar@hotmail...</t>
+  </si>
+  <si>
+    <t>khalidmaroof92...</t>
   </si>
   <si>
     <t>+966536159715</t>
@@ -1320,16 +1314,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1337,16 +1331,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1354,16 +1348,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1371,16 +1365,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1388,16 +1382,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1405,16 +1399,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1422,16 +1416,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1439,16 +1433,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1456,16 +1450,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1473,16 +1467,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1490,13 +1484,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1504,16 +1498,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1521,16 +1515,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1538,16 +1532,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1555,16 +1549,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1572,16 +1566,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1589,16 +1583,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1606,16 +1600,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1623,13 +1617,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1637,16 +1631,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1654,16 +1648,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1671,16 +1665,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1688,16 +1682,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1705,16 +1699,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1722,16 +1716,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1739,16 +1733,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1756,16 +1750,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1773,16 +1767,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1790,16 +1784,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1807,16 +1801,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1824,16 +1818,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1841,16 +1835,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1858,16 +1852,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1875,16 +1869,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1892,16 +1886,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1909,16 +1903,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1926,16 +1920,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1943,13 +1937,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1957,16 +1951,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1974,16 +1968,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1991,16 +1985,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2008,16 +2002,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2025,16 +2019,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2042,16 +2036,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2059,16 +2053,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2076,16 +2070,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2093,16 +2087,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2110,16 +2104,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2127,16 +2121,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2144,16 +2138,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2161,16 +2155,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2178,16 +2172,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2195,16 +2189,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2212,16 +2206,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2229,16 +2223,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2246,16 +2240,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2263,16 +2257,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2280,16 +2274,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2297,713 +2291,713 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E77" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D81" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E86" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E88" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E94" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E95" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E96" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E97" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E98" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E101" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
